--- a/results/comparaison/WM/depolarization/mean_raw_data.xlsx
+++ b/results/comparaison/WM/depolarization/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -670,55 +682,55 @@
         <v>0.937338472312796</v>
       </c>
       <c r="C2">
+        <v>0.957392223645154</v>
+      </c>
+      <c r="D2">
         <v>0.9574240648045088</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.9433462498324228</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.9573696477092216</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0.9580857316960228</v>
+      </c>
+      <c r="H2">
         <v>0.932946755736672</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.9490235775765744</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.963461434665536</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.9268483566817642</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.9473314983113228</v>
-      </c>
-      <c r="K2">
-        <v>0.947294320283376</v>
-      </c>
-      <c r="L2">
-        <v>0.9494102226783008</v>
       </c>
       <c r="M2">
         <v>0.9388946100780492</v>
       </c>
       <c r="N2">
+        <v>0.947294320283376</v>
+      </c>
+      <c r="O2">
+        <v>0.9494102226783008</v>
+      </c>
+      <c r="P2">
         <v>0.9575247398239728</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.9421644624186816</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.9552704021032806</v>
       </c>
-      <c r="Q2">
-        <v>0.9406579658525488</v>
-      </c>
-      <c r="R2">
-        <v>0.9485169595543462</v>
-      </c>
       <c r="S2">
-        <v>0.9571257279658866</v>
+        <v>0.9454200365484258</v>
       </c>
       <c r="T2">
         <v>0.9552959196527178</v>
@@ -742,259 +754,304 @@
         <v>0.956361546278338</v>
       </c>
       <c r="AA2">
-        <v>0.9554828260297664</v>
+        <v>0.9413491440502773</v>
       </c>
       <c r="AB2">
-        <v>0.9509100247713984</v>
+        <v>0.9300942371984108</v>
       </c>
       <c r="AC2">
-        <v>0.9472212155927742</v>
+        <v>0.932085739107686</v>
       </c>
       <c r="AD2">
-        <v>0.9403728542453246</v>
+        <v>0.9588011715398012</v>
       </c>
       <c r="AE2">
+        <v>0.959929030854128</v>
+      </c>
+      <c r="AF2">
+        <v>0.9549737819193777</v>
+      </c>
+      <c r="AG2">
+        <v>0.919397623817324</v>
+      </c>
+      <c r="AH2">
+        <v>0.9174868098460236</v>
+      </c>
+      <c r="AI2">
+        <v>0.9507874443396728</v>
+      </c>
+      <c r="AJ2">
+        <v>0.94403704775181</v>
+      </c>
+      <c r="AK2">
         <v>0.9353517428736016</v>
       </c>
-      <c r="AF2">
+      <c r="AL2">
+        <v>0.940524240314946</v>
+      </c>
+      <c r="AM2">
         <v>0.9523230138725408</v>
       </c>
-      <c r="AG2">
-        <v>0.8854863249710988</v>
-      </c>
-      <c r="AH2">
+      <c r="AN2">
         <v>0.9508701584751748</v>
       </c>
-      <c r="AI2">
-        <v>0.9160614165827587</v>
-      </c>
-      <c r="AJ2">
+      <c r="AO2">
         <v>0.9300415443430166</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
+        <v>0.9513884290819032</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9349105800077286</v>
+      </c>
+      <c r="AR2">
         <v>0.9232426641526448</v>
       </c>
-      <c r="AL2">
-        <v>0.932085739107686</v>
-      </c>
-      <c r="AM2">
-        <v>0.953574878953372</v>
-      </c>
-      <c r="AN2">
-        <v>0.9578638299769494</v>
-      </c>
-      <c r="AO2">
-        <v>0.9231054831694884</v>
-      </c>
-      <c r="AP2">
-        <v>0.9687822961694894</v>
-      </c>
-      <c r="AQ2">
-        <v>0.9530772505902192</v>
-      </c>
-      <c r="AR2">
-        <v>0.956543301601815</v>
-      </c>
       <c r="AS2">
-        <v>0.943692090768931</v>
+        <v>0.8471621204287403</v>
       </c>
       <c r="AT2">
-        <v>0.9588011715398012</v>
+        <v>0.9368583393964718</v>
       </c>
       <c r="AU2">
-        <v>0.9549737819193777</v>
+        <v>0.92242950109945</v>
       </c>
       <c r="AV2">
-        <v>0.919397623817324</v>
+        <v>0.949249834071635</v>
       </c>
       <c r="AW2">
-        <v>0.9174868098460236</v>
+        <v>0.948520544528623</v>
       </c>
       <c r="AX2">
-        <v>0.9507874443396728</v>
+        <v>0.9384741235923793</v>
       </c>
       <c r="AY2">
-        <v>0.9556483298617936</v>
+        <v>0.8672307217106772</v>
       </c>
       <c r="AZ2">
-        <v>0.8899190992085247</v>
+        <v>0.9421720067985468</v>
       </c>
       <c r="BA2">
+        <v>0.9041421053687204</v>
+      </c>
+      <c r="BB2">
+        <v>0.92740971524269</v>
+      </c>
+      <c r="BC2">
+        <v>0.9480632639594176</v>
+      </c>
+      <c r="BD2">
+        <v>0.9433900039863884</v>
+      </c>
+      <c r="BE2">
+        <v>0.9173485369677168</v>
+      </c>
+      <c r="BF2">
+        <v>0.942365992040228</v>
+      </c>
+      <c r="BG2">
+        <v>0.9552364857896728</v>
+      </c>
+      <c r="BH2">
+        <v>0.935133160374213</v>
+      </c>
+      <c r="BI2">
+        <v>0.8904585256434546</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9465300583281956</v>
+      </c>
+      <c r="BK2">
+        <v>0.92240626997098</v>
+      </c>
+      <c r="BL2">
         <v>0.9001775038204094</v>
       </c>
-      <c r="BB2">
-        <v>0.932438994391294</v>
-      </c>
-      <c r="BC2">
-        <v>0.9572693976001738</v>
-      </c>
-      <c r="BD2">
-        <v>0.9310662621686008</v>
-      </c>
-      <c r="BE2">
-        <v>0.9257304423251632</v>
-      </c>
-      <c r="BF2">
-        <v>0.9402808309898848</v>
-      </c>
-      <c r="BG2">
-        <v>0.9427927965292102</v>
-      </c>
-      <c r="BH2">
-        <v>0.8937297798532599</v>
-      </c>
-      <c r="BI2">
-        <v>0.9435985924873016</v>
-      </c>
-      <c r="BJ2">
-        <v>0.932261272043704</v>
-      </c>
-      <c r="BK2">
-        <v>0.929716612180264</v>
-      </c>
-      <c r="BL2">
-        <v>0.943567735436458</v>
-      </c>
       <c r="BM2">
-        <v>0.9244711045971844</v>
+        <v>0.9359498082267312</v>
       </c>
       <c r="BN2">
-        <v>0.9304143657243216</v>
+        <v>0.926761142451896</v>
       </c>
       <c r="BO2">
-        <v>0.9296886318147226</v>
+        <v>0.9341393776344282</v>
       </c>
       <c r="BP2">
-        <v>0.9102931254604484</v>
+        <v>0.910647246628391</v>
       </c>
       <c r="BQ2">
-        <v>0.936648834777325</v>
+        <v>0.9495236171400734</v>
       </c>
       <c r="BR2">
-        <v>0.9434166877031438</v>
+        <v>0.9194015026728374</v>
       </c>
       <c r="BS2">
-        <v>0.9075641663376944</v>
+        <v>0.8691856152086647</v>
       </c>
       <c r="BT2">
-        <v>0.9039641457833544</v>
+        <v>0.9443858555656516</v>
       </c>
       <c r="BU2">
-        <v>0.9272394681847465</v>
+        <v>0.9526003444512188</v>
       </c>
       <c r="BV2">
-        <v>0.945862431134462</v>
+        <v>0.9283232533837166</v>
       </c>
       <c r="BW2">
-        <v>0.9257458691659888</v>
+        <v>0.9375519218642252</v>
       </c>
       <c r="BX2">
-        <v>0.94826162873113</v>
+        <v>0.94210231235988</v>
       </c>
       <c r="BY2">
-        <v>0.9174765979425769</v>
+        <v>0.8558996877563403</v>
       </c>
       <c r="BZ2">
-        <v>0.897509662079308</v>
+        <v>0.9605247011754208</v>
       </c>
       <c r="CA2">
-        <v>0.94961659663497</v>
+        <v>0.937076699898108</v>
       </c>
       <c r="CB2">
-        <v>0.9605988106242828</v>
+        <v>0.8397992327566201</v>
       </c>
       <c r="CC2">
-        <v>0.8964401446791889</v>
+        <v>0.9477117128517776</v>
       </c>
       <c r="CD2">
-        <v>0.920787518848886</v>
+        <v>0.9437547280950166</v>
       </c>
       <c r="CE2">
-        <v>0.935000661402079</v>
+        <v>0.951127070356124</v>
       </c>
       <c r="CF2">
-        <v>0.9421830895945308</v>
+        <v>0.8794008826402978</v>
       </c>
       <c r="CG2">
-        <v>0.9457363632835304</v>
+        <v>0.8374550321046925</v>
       </c>
       <c r="CH2">
-        <v>0.9304894861939608</v>
+        <v>0.932700630655983</v>
       </c>
       <c r="CI2">
-        <v>0.920621572946985</v>
+        <v>0.8835602744920231</v>
       </c>
       <c r="CJ2">
-        <v>0.9612099124668968</v>
+        <v>0.9092351621846784</v>
       </c>
       <c r="CK2">
-        <v>0.9422323921264132</v>
+        <v>0.9090800825086652</v>
       </c>
       <c r="CL2">
-        <v>0.91714146865379</v>
+        <v>0.8812145031555196</v>
       </c>
       <c r="CM2">
-        <v>0.9137470982204782</v>
+        <v>0.8981469236512583</v>
       </c>
       <c r="CN2">
-        <v>0.9419015655558504</v>
+        <v>0.8531417491930502</v>
       </c>
       <c r="CO2">
-        <v>0.9332402504471532</v>
+        <v>0.9169558242760324</v>
       </c>
       <c r="CP2">
-        <v>0.9160171117159336</v>
+        <v>0.8885416337927986</v>
       </c>
       <c r="CQ2">
-        <v>0.9602689709392273</v>
+        <v>0.9223005956926296</v>
       </c>
       <c r="CR2">
-        <v>0.8834165165137442</v>
+        <v>0.9034911681363148</v>
       </c>
       <c r="CS2">
-        <v>0.9034911681363148</v>
+        <v>0.8893739720382123</v>
+      </c>
+      <c r="CT2">
+        <v>0.96013173070695</v>
+      </c>
+      <c r="CU2">
+        <v>0.8944313919736908</v>
+      </c>
+      <c r="CV2">
+        <v>0.9113975065800708</v>
+      </c>
+      <c r="CW2">
+        <v>0.9383463024092876</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.9415840989148722</v>
       </c>
+      <c r="C3">
+        <v>0.8989541334695643</v>
+      </c>
+      <c r="D3">
+        <v>0.8995975154405589</v>
+      </c>
       <c r="E3">
+        <v>0.9407301899484944</v>
+      </c>
+      <c r="F3">
         <v>0.9538405783553506</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.943174909470947</v>
+      </c>
+      <c r="H3">
         <v>0.9347547581545652</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>0.8994070089870021</v>
+      </c>
+      <c r="J3">
         <v>0.959018451836664</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.9257344171434052</v>
       </c>
-      <c r="K3">
-        <v>0.952527004460508</v>
+      <c r="L3">
+        <v>0.9199147780872868</v>
       </c>
       <c r="M3">
         <v>0.944690162787948</v>
       </c>
       <c r="N3">
+        <v>0.952527004460508</v>
+      </c>
+      <c r="O3">
+        <v>0.9363484740970039</v>
+      </c>
+      <c r="P3">
         <v>0.9549938196751158</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.9265261960277664</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.9595623813730184</v>
       </c>
       <c r="S3">
-        <v>0.950086530399108</v>
+        <v>0.9109982942065206</v>
+      </c>
+      <c r="T3">
+        <v>0.9139072672948226</v>
+      </c>
+      <c r="U3">
+        <v>0.9229251587401694</v>
+      </c>
+      <c r="V3">
+        <v>0.927892450431154</v>
       </c>
       <c r="W3">
         <v>0.9587715178237824</v>
       </c>
+      <c r="X3">
+        <v>0.9422721181132356</v>
+      </c>
       <c r="Y3">
         <v>0.9564605573275176</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>0.9563950970856414</v>
       </c>
       <c r="AA3">
-        <v>0.9423483180341437</v>
+        <v>0.915595767728708</v>
       </c>
       <c r="AB3">
-        <v>0.9581974211878554</v>
+        <v>0.9136133339086416</v>
+      </c>
+      <c r="AC3">
+        <v>0.885264860427098</v>
+      </c>
+      <c r="AD3">
+        <v>0.95244667933833</v>
+      </c>
+      <c r="AF3">
+        <v>0.9605110247980088</v>
+      </c>
+      <c r="AG3">
+        <v>0.9316437085612344</v>
+      </c>
+      <c r="AH3">
+        <v>0.8754249073970538</v>
+      </c>
+      <c r="AI3">
+        <v>0.9556502278131612</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9506355839678752</v>
+      </c>
+      <c r="AL3">
+        <v>0.907291580614684</v>
+      </c>
+      <c r="AM3">
+        <v>0.9291281522244929</v>
+      </c>
+      <c r="AN3">
+        <v>0.9451260294023874</v>
+      </c>
+      <c r="AO3">
+        <v>0.9522958254761617</v>
+      </c>
+      <c r="AP3">
+        <v>0.9541505980877596</v>
       </c>
       <c r="AQ3">
-        <v>0.9558288510852748</v>
+        <v>0.936474163279455</v>
       </c>
       <c r="AR3">
-        <v>0.95187932894439</v>
+        <v>0.9167541256617544</v>
       </c>
       <c r="AS3">
-        <v>0.9462636725198224</v>
+        <v>0.90217726275923</v>
       </c>
       <c r="AT3">
-        <v>0.95244667933833</v>
+        <v>0.9506013861557684</v>
       </c>
       <c r="AU3">
-        <v>0.9605110247980088</v>
+        <v>0.9016578014172844</v>
+      </c>
+      <c r="AV3">
+        <v>0.953109367037495</v>
       </c>
       <c r="AX3">
-        <v>0.9556502278131612</v>
+        <v>0.8749717835825924</v>
+      </c>
+      <c r="AY3">
+        <v>0.8903527491668782</v>
+      </c>
+      <c r="AZ3">
+        <v>0.94886557623371</v>
+      </c>
+      <c r="BA3">
+        <v>0.9432594976938766</v>
       </c>
       <c r="BB3">
-        <v>0.9478597397483636</v>
+        <v>0.943404859521932</v>
       </c>
       <c r="BC3">
-        <v>0.9548624894860636</v>
+        <v>0.9136727116940956</v>
+      </c>
+      <c r="BD3">
+        <v>0.9473816893312964</v>
+      </c>
+      <c r="BE3">
+        <v>0.8849938365627354</v>
       </c>
       <c r="BF3">
-        <v>0.954983554523944</v>
+        <v>0.9611231009704334</v>
+      </c>
+      <c r="BG3">
+        <v>0.957694996371514</v>
+      </c>
+      <c r="BH3">
+        <v>0.9567127317990992</v>
       </c>
       <c r="BI3">
-        <v>0.9559120313991216</v>
+        <v>0.9356550705671592</v>
       </c>
       <c r="BJ3">
-        <v>0.9500496941785728</v>
+        <v>0.9319254480453192</v>
       </c>
       <c r="BK3">
-        <v>0.9450956763816872</v>
+        <v>0.9164157029411484</v>
+      </c>
+      <c r="BM3">
+        <v>0.9495922953773064</v>
+      </c>
+      <c r="BN3">
+        <v>0.9195073601578212</v>
       </c>
       <c r="BO3">
-        <v>0.9532719110833294</v>
+        <v>0.9498074761354482</v>
       </c>
       <c r="BP3">
-        <v>0.9084034295385848</v>
+        <v>0.9407201148299288</v>
       </c>
       <c r="BQ3">
-        <v>0.9592920187272526</v>
+        <v>0.948474468885986</v>
       </c>
       <c r="BR3">
-        <v>0.9511687743423164</v>
+        <v>0.9422737950709666</v>
       </c>
       <c r="BS3">
-        <v>0.9410528345102532</v>
+        <v>0.9159778002951317</v>
+      </c>
+      <c r="BT3">
+        <v>0.9534465370456404</v>
       </c>
       <c r="BU3">
-        <v>0.9492365677970704</v>
+        <v>0.9561890930429886</v>
       </c>
       <c r="BV3">
-        <v>0.9393826894134324</v>
+        <v>0.8456215077509817</v>
+      </c>
+      <c r="BW3">
+        <v>0.9589366640709486</v>
+      </c>
+      <c r="BX3">
+        <v>0.9543725668977676</v>
+      </c>
+      <c r="BY3">
+        <v>0.8518393163119853</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9422715696118008</v>
+      </c>
+      <c r="CA3">
+        <v>0.903781615689543</v>
+      </c>
+      <c r="CB3">
+        <v>0.8430604031484695</v>
+      </c>
+      <c r="CC3">
+        <v>0.93933585721584</v>
+      </c>
+      <c r="CD3">
+        <v>0.9296856006724764</v>
+      </c>
+      <c r="CE3">
+        <v>0.8819393620500408</v>
+      </c>
+      <c r="CF3">
+        <v>0.8805705631768193</v>
       </c>
       <c r="CG3">
-        <v>0.9436654819744968</v>
+        <v>0.9116993912459592</v>
+      </c>
+      <c r="CH3">
+        <v>0.908567741430919</v>
+      </c>
+      <c r="CI3">
+        <v>0.8818537646781759</v>
       </c>
       <c r="CK3">
-        <v>0.9193916640309708</v>
+        <v>0.8834826420805348</v>
+      </c>
+      <c r="CL3">
+        <v>0.8975694887559005</v>
+      </c>
+      <c r="CM3">
+        <v>0.905844148356292</v>
       </c>
       <c r="CN3">
-        <v>0.9151123799349162</v>
+        <v>0.9300216419705571</v>
+      </c>
+      <c r="CO3">
+        <v>0.9133834322567044</v>
+      </c>
+      <c r="CP3">
+        <v>0.8709701158701938</v>
+      </c>
+      <c r="CQ3">
+        <v>0.938338785813698</v>
+      </c>
+      <c r="CR3">
+        <v>0.9290724274023128</v>
+      </c>
+      <c r="CS3">
+        <v>0.9340201577569696</v>
+      </c>
+      <c r="CT3">
+        <v>0.9196285855938456</v>
+      </c>
+      <c r="CU3">
+        <v>0.8625345883352844</v>
+      </c>
+      <c r="CV3">
+        <v>0.9283360714409088</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.9484286781718212</v>
       </c>
+      <c r="C4">
+        <v>0.9208818096096774</v>
+      </c>
+      <c r="D4">
+        <v>0.9016858723504144</v>
+      </c>
       <c r="E4">
+        <v>0.9497419944490209</v>
+      </c>
+      <c r="F4">
         <v>0.9599067406975196</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.940395510346932</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>0.9555537383266004</v>
+      </c>
+      <c r="J4">
         <v>0.9658201842460702</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.9482995715793588</v>
       </c>
-      <c r="K4">
-        <v>0.958877508589044</v>
+      <c r="L4">
+        <v>0.9319285576875086</v>
       </c>
       <c r="M4">
         <v>0.9505030833224064</v>
       </c>
       <c r="N4">
+        <v>0.958877508589044</v>
+      </c>
+      <c r="O4">
+        <v>0.9148675692252992</v>
+      </c>
+      <c r="P4">
         <v>0.9619897945203434</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.9411383598491002</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.9674232093113232</v>
       </c>
       <c r="S4">
-        <v>0.9611264227713771</v>
+        <v>0.9170388522299932</v>
+      </c>
+      <c r="T4">
+        <v>0.9265232192414324</v>
+      </c>
+      <c r="U4">
+        <v>0.8925960643874191</v>
+      </c>
+      <c r="V4">
+        <v>0.9162621532771096</v>
       </c>
       <c r="W4">
         <v>0.9651233151488816</v>
       </c>
+      <c r="X4">
+        <v>0.9213842343672</v>
+      </c>
       <c r="Y4">
         <v>0.9627630643538256</v>
       </c>
       <c r="Z4">
         <v>0.9623340287234629</v>
       </c>
+      <c r="AA4">
+        <v>0.9161096744594686</v>
+      </c>
       <c r="AB4">
-        <v>0.955749353418852</v>
+        <v>0.937680855605448</v>
+      </c>
+      <c r="AC4">
+        <v>0.8764883399379984</v>
+      </c>
+      <c r="AD4">
+        <v>0.9598504488383056</v>
+      </c>
+      <c r="AF4">
+        <v>0.958256749523769</v>
+      </c>
+      <c r="AG4">
+        <v>0.9370493519161148</v>
       </c>
       <c r="AH4">
+        <v>0.8853664252851396</v>
+      </c>
+      <c r="AI4">
+        <v>0.9539069561966604</v>
+      </c>
+      <c r="AJ4">
+        <v>0.9559204342190504</v>
+      </c>
+      <c r="AL4">
+        <v>0.9068357770912574</v>
+      </c>
+      <c r="AM4">
+        <v>0.9298299969792568</v>
+      </c>
+      <c r="AN4">
         <v>0.9375017823396082</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>0.9409207755346032</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>0.9514762106691156</v>
+      </c>
+      <c r="AQ4">
+        <v>0.9336083202488836</v>
+      </c>
+      <c r="AR4">
         <v>0.94277380094699</v>
       </c>
-      <c r="AM4">
-        <v>0.946218982847202</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9555218381275332</v>
-      </c>
-      <c r="AR4">
-        <v>0.9487132069872878</v>
-      </c>
-      <c r="AS4">
-        <v>0.9425234209755994</v>
-      </c>
       <c r="AT4">
-        <v>0.9598504488383056</v>
+        <v>0.9514349692389412</v>
       </c>
       <c r="AU4">
-        <v>0.958256749523769</v>
-      </c>
-      <c r="AX4">
-        <v>0.9539069561966604</v>
+        <v>0.9465169690409286</v>
+      </c>
+      <c r="AV4">
+        <v>0.9521744557618876</v>
+      </c>
+      <c r="AZ4">
+        <v>0.9479256487229676</v>
+      </c>
+      <c r="BA4">
+        <v>0.939520899311852</v>
       </c>
       <c r="BB4">
-        <v>0.950171430451922</v>
+        <v>0.939957261132593</v>
       </c>
       <c r="BC4">
-        <v>0.9528771795142202</v>
+        <v>0.9053864394377872</v>
+      </c>
+      <c r="BD4">
+        <v>0.9185794404955472</v>
+      </c>
+      <c r="BE4">
+        <v>0.8862001642663413</v>
+      </c>
+      <c r="BF4">
+        <v>0.9613198302987164</v>
+      </c>
+      <c r="BG4">
+        <v>0.957317274971545</v>
+      </c>
+      <c r="BH4">
+        <v>0.938215036344858</v>
       </c>
       <c r="BI4">
-        <v>0.9574721616497418</v>
+        <v>0.9361154305229372</v>
       </c>
       <c r="BJ4">
-        <v>0.9397458386239812</v>
+        <v>0.9090056262015208</v>
       </c>
       <c r="BK4">
-        <v>0.942101068441773</v>
+        <v>0.8857894676884285</v>
+      </c>
+      <c r="BL4">
+        <v>0.8791031669919945</v>
+      </c>
+      <c r="BM4">
+        <v>0.935052361942826</v>
+      </c>
+      <c r="BN4">
+        <v>0.8649064775182016</v>
+      </c>
+      <c r="BO4">
+        <v>0.9502103545037692</v>
       </c>
       <c r="BP4">
-        <v>0.9047544240698738</v>
-      </c>
-      <c r="BS4">
-        <v>0.9374655720628858</v>
+        <v>0.9255630018419074</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9485779172821242</v>
+      </c>
+      <c r="BR4">
+        <v>0.9382950494885802</v>
+      </c>
+      <c r="BT4">
+        <v>0.9529099475905932</v>
       </c>
       <c r="BU4">
-        <v>0.94941161157085</v>
+        <v>0.95368442023572</v>
       </c>
       <c r="BV4">
-        <v>0.952338793492234</v>
+        <v>0.8605554064049624</v>
+      </c>
+      <c r="BW4">
+        <v>0.9593472090647877</v>
+      </c>
+      <c r="BX4">
+        <v>0.9340445738037804</v>
+      </c>
+      <c r="BY4">
+        <v>0.8614129057094687</v>
+      </c>
+      <c r="BZ4">
+        <v>0.9170117780256258</v>
+      </c>
+      <c r="CA4">
+        <v>0.9085738359319632</v>
+      </c>
+      <c r="CB4">
+        <v>0.8571632029088841</v>
+      </c>
+      <c r="CC4">
+        <v>0.935060653478864</v>
+      </c>
+      <c r="CD4">
+        <v>0.9276181492677374</v>
+      </c>
+      <c r="CE4">
+        <v>0.8718387419091845</v>
       </c>
       <c r="CF4">
-        <v>0.926392081195479</v>
+        <v>0.8737585128074589</v>
+      </c>
+      <c r="CG4">
+        <v>0.8576590543735968</v>
       </c>
       <c r="CH4">
-        <v>0.9113711730764072</v>
+        <v>0.906319114137468</v>
+      </c>
+      <c r="CI4">
+        <v>0.8836486912443053</v>
       </c>
       <c r="CK4">
-        <v>0.9247676209443958</v>
+        <v>0.8731809459480034</v>
+      </c>
+      <c r="CL4">
+        <v>0.924985276935236</v>
+      </c>
+      <c r="CM4">
+        <v>0.8736242731469539</v>
       </c>
       <c r="CN4">
-        <v>0.9165171403494108</v>
+        <v>0.8998233599414024</v>
+      </c>
+      <c r="CO4">
+        <v>0.8926824372466893</v>
+      </c>
+      <c r="CP4">
+        <v>0.8637244326628476</v>
+      </c>
+      <c r="CQ4">
+        <v>0.9417530172470356</v>
+      </c>
+      <c r="CR4">
+        <v>0.9067827474528308</v>
+      </c>
+      <c r="CS4">
+        <v>0.9266398241372588</v>
+      </c>
+      <c r="CT4">
+        <v>0.9504163865555884</v>
+      </c>
+      <c r="CU4">
+        <v>0.8842459287044894</v>
+      </c>
+      <c r="CV4">
+        <v>0.9249211834913992</v>
+      </c>
+      <c r="CW4">
+        <v>0.9365373664266128</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.9414739248653988</v>
       </c>
+      <c r="C5">
+        <v>0.911981424560772</v>
+      </c>
       <c r="D5">
+        <v>0.8806993764243201</v>
+      </c>
+      <c r="E5">
         <v>0.9316115205107932</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.9555896566558096</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.9443597417832484</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0.9152401749618384</v>
+      </c>
+      <c r="J5">
         <v>0.9605303211814916</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.935050794606696</v>
       </c>
-      <c r="K5">
-        <v>0.953408041925066</v>
+      <c r="L5">
+        <v>0.8995228996745778</v>
       </c>
       <c r="M5">
         <v>0.9337440686273236</v>
       </c>
       <c r="N5">
+        <v>0.953408041925066</v>
+      </c>
+      <c r="O5">
+        <v>0.8988589098839194</v>
+      </c>
+      <c r="P5">
         <v>0.9547294254690032</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.9150751488855864</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.963672410369496</v>
       </c>
       <c r="S5">
-        <v>0.953500097239969</v>
+        <v>0.8908982687092056</v>
+      </c>
+      <c r="T5">
+        <v>0.9202443060839964</v>
+      </c>
+      <c r="U5">
+        <v>0.8752686234759516</v>
+      </c>
+      <c r="V5">
+        <v>0.8735120146342458</v>
       </c>
       <c r="W5">
         <v>0.958954468058548</v>
       </c>
+      <c r="X5">
+        <v>0.9086515630445072</v>
+      </c>
       <c r="Y5">
         <v>0.9584781830018944</v>
       </c>
       <c r="Z5">
         <v>0.9578530170118736</v>
       </c>
+      <c r="AA5">
+        <v>0.9231226652047364</v>
+      </c>
       <c r="AB5">
-        <v>0.9517228167988816</v>
+        <v>0.9047923694970208</v>
+      </c>
+      <c r="AC5">
+        <v>0.8866808598943267</v>
+      </c>
+      <c r="AD5">
+        <v>0.9475099504301588</v>
+      </c>
+      <c r="AF5">
+        <v>0.9514525692976676</v>
+      </c>
+      <c r="AG5">
+        <v>0.92624691552361</v>
+      </c>
+      <c r="AH5">
+        <v>0.8713685195616111</v>
+      </c>
+      <c r="AI5">
+        <v>0.9477727646310961</v>
+      </c>
+      <c r="AJ5">
+        <v>0.9439861273903082</v>
+      </c>
+      <c r="AL5">
+        <v>0.9140440827071836</v>
+      </c>
+      <c r="AM5">
+        <v>0.9248246315482096</v>
+      </c>
+      <c r="AN5">
+        <v>0.93428983010208</v>
+      </c>
+      <c r="AO5">
+        <v>0.938430608688118</v>
+      </c>
+      <c r="AP5">
+        <v>0.9476231537703064</v>
       </c>
       <c r="AQ5">
-        <v>0.9495475351992232</v>
+        <v>0.922591563485518</v>
       </c>
       <c r="AR5">
-        <v>0.9453701897713116</v>
+        <v>0.913585686612528</v>
       </c>
       <c r="AS5">
-        <v>0.9337008633969588</v>
+        <v>0.8870365536084446</v>
       </c>
       <c r="AT5">
-        <v>0.9475099504301588</v>
+        <v>0.9461130318753552</v>
       </c>
       <c r="AU5">
-        <v>0.9514525692976676</v>
-      </c>
-      <c r="AX5">
-        <v>0.9477727646310961</v>
+        <v>0.8940073303663082</v>
+      </c>
+      <c r="AV5">
+        <v>0.946155724720218</v>
+      </c>
+      <c r="AY5">
+        <v>0.8598403818417458</v>
+      </c>
+      <c r="AZ5">
+        <v>0.9469678285677852</v>
+      </c>
+      <c r="BA5">
+        <v>0.9411597356443444</v>
       </c>
       <c r="BB5">
-        <v>0.9530432487416348</v>
+        <v>0.9394761715012684</v>
       </c>
       <c r="BC5">
-        <v>0.9541508020445348</v>
+        <v>0.9133116680356684</v>
+      </c>
+      <c r="BD5">
+        <v>0.9272378770891612</v>
       </c>
       <c r="BE5">
-        <v>0.9388032485414241</v>
+        <v>0.8684609283989713</v>
+      </c>
+      <c r="BF5">
+        <v>0.9605338517956966</v>
+      </c>
+      <c r="BG5">
+        <v>0.950231473600588</v>
+      </c>
+      <c r="BH5">
+        <v>0.9157358223231252</v>
       </c>
       <c r="BI5">
-        <v>0.9581677226517836</v>
+        <v>0.9293294229422732</v>
+      </c>
+      <c r="BJ5">
+        <v>0.891720237351008</v>
       </c>
       <c r="BK5">
-        <v>0.9391255123570592</v>
+        <v>0.8501231167918627</v>
+      </c>
+      <c r="BM5">
+        <v>0.9395940285488908</v>
+      </c>
+      <c r="BN5">
+        <v>0.8865144466333347</v>
+      </c>
+      <c r="BO5">
+        <v>0.946109421664594</v>
       </c>
       <c r="BP5">
-        <v>0.903345597108953</v>
-      </c>
-      <c r="BS5">
-        <v>0.939246109074916</v>
+        <v>0.9295465989550276</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9494126536889018</v>
+      </c>
+      <c r="BR5">
+        <v>0.9400534220998684</v>
+      </c>
+      <c r="BT5">
+        <v>0.9560163439105606</v>
       </c>
       <c r="BU5">
-        <v>0.9495072489513048</v>
+        <v>0.9549144306368332</v>
       </c>
       <c r="BV5">
-        <v>0.9331726973626048</v>
+        <v>0.8721161540736005</v>
+      </c>
+      <c r="BW5">
+        <v>0.9597583103480498</v>
+      </c>
+      <c r="BX5">
+        <v>0.9320812887909388</v>
+      </c>
+      <c r="BY5">
+        <v>0.8647371750370699</v>
       </c>
       <c r="BZ5">
-        <v>0.947718362464088</v>
+        <v>0.9310052017117793</v>
+      </c>
+      <c r="CA5">
+        <v>0.9052379971372774</v>
+      </c>
+      <c r="CB5">
+        <v>0.871368092182504</v>
       </c>
       <c r="CC5">
-        <v>0.9304092819789768</v>
+        <v>0.9480961589548792</v>
+      </c>
+      <c r="CD5">
+        <v>0.9330688150756372</v>
+      </c>
+      <c r="CE5">
+        <v>0.8924758831696663</v>
+      </c>
+      <c r="CF5">
+        <v>0.909967400661272</v>
+      </c>
+      <c r="CG5">
+        <v>0.9035065312000522</v>
       </c>
       <c r="CH5">
-        <v>0.930567705625974</v>
+        <v>0.9154513530675228</v>
+      </c>
+      <c r="CI5">
+        <v>0.8918101191411282</v>
       </c>
       <c r="CK5">
-        <v>0.9307805766217468</v>
+        <v>0.910858764209064</v>
+      </c>
+      <c r="CL5">
+        <v>0.8874728653791891</v>
+      </c>
+      <c r="CM5">
+        <v>0.9113928353112594</v>
+      </c>
+      <c r="CN5">
+        <v>0.9355996407869012</v>
+      </c>
+      <c r="CO5">
+        <v>0.9181242627491468</v>
       </c>
       <c r="CP5">
-        <v>0.9354625297049218</v>
+        <v>0.8830411306130358</v>
+      </c>
+      <c r="CQ5">
+        <v>0.9470680237586721</v>
+      </c>
+      <c r="CR5">
+        <v>0.9522682888569344</v>
       </c>
       <c r="CS5">
-        <v>0.9522682888569344</v>
+        <v>0.9495315879155212</v>
+      </c>
+      <c r="CT5">
+        <v>0.9353674393247328</v>
+      </c>
+      <c r="CU5">
+        <v>0.8764863038919058</v>
+      </c>
+      <c r="CV5">
+        <v>0.9462340832512868</v>
+      </c>
+      <c r="CW5">
+        <v>0.9563769292005352</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.9396992661011936</v>
       </c>
+      <c r="C6">
+        <v>0.9227672092287024</v>
+      </c>
+      <c r="D6">
+        <v>0.8841580264799537</v>
+      </c>
       <c r="E6">
+        <v>0.9290891901914844</v>
+      </c>
+      <c r="F6">
         <v>0.9589371681551084</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.9512777298962546</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0.8439490407448081</v>
+      </c>
+      <c r="J6">
         <v>0.9575337659371106</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.9466116375216016</v>
       </c>
-      <c r="K6">
-        <v>0.95078544428151</v>
+      <c r="L6">
+        <v>0.8951368449568131</v>
       </c>
       <c r="M6">
         <v>0.9299532505120111</v>
       </c>
       <c r="N6">
+        <v>0.95078544428151</v>
+      </c>
+      <c r="O6">
+        <v>0.8692624590437575</v>
+      </c>
+      <c r="P6">
         <v>0.9532705617105944</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>0.9061563066444872</v>
+      </c>
+      <c r="R6">
         <v>0.964028820529623</v>
       </c>
       <c r="S6">
-        <v>0.951116927753918</v>
+        <v>0.8953889215674959</v>
+      </c>
+      <c r="T6">
+        <v>0.9258514872232596</v>
+      </c>
+      <c r="U6">
+        <v>0.8801175029462457</v>
+      </c>
+      <c r="V6">
+        <v>0.837918722670978</v>
       </c>
       <c r="W6">
         <v>0.9548284956770861</v>
       </c>
+      <c r="X6">
+        <v>0.8264014350470988</v>
+      </c>
       <c r="Y6">
         <v>0.9574184119430542</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>0.9603636763703944</v>
       </c>
       <c r="AA6">
-        <v>0.9372354714676178</v>
+        <v>0.9172765111474962</v>
       </c>
       <c r="AB6">
-        <v>0.959195494853688</v>
+        <v>0.90487893889134</v>
+      </c>
+      <c r="AC6">
+        <v>0.8799411284787394</v>
+      </c>
+      <c r="AD6">
+        <v>0.9481407873193978</v>
+      </c>
+      <c r="AF6">
+        <v>0.9569138561285894</v>
+      </c>
+      <c r="AG6">
+        <v>0.9208836371243764</v>
+      </c>
+      <c r="AH6">
+        <v>0.8999319663750742</v>
+      </c>
+      <c r="AI6">
+        <v>0.9517937962564256</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9504147214297292</v>
+      </c>
+      <c r="AK6">
+        <v>0.8812800749687056</v>
+      </c>
+      <c r="AL6">
+        <v>0.9021017424933598</v>
+      </c>
+      <c r="AM6">
+        <v>0.9328622226596226</v>
+      </c>
+      <c r="AN6">
+        <v>0.9429128664567046</v>
+      </c>
+      <c r="AO6">
+        <v>0.9419953982986892</v>
+      </c>
+      <c r="AP6">
+        <v>0.9538348999075956</v>
       </c>
       <c r="AQ6">
-        <v>0.9569034390763296</v>
+        <v>0.923810121752338</v>
       </c>
       <c r="AR6">
-        <v>0.9492841966377698</v>
+        <v>0.9092804941470344</v>
       </c>
       <c r="AS6">
-        <v>0.9378595544938764</v>
+        <v>0.8820124905562631</v>
       </c>
       <c r="AT6">
-        <v>0.9481407873193978</v>
+        <v>0.9505057776645868</v>
       </c>
       <c r="AU6">
-        <v>0.9569138561285894</v>
+        <v>0.8925587942846182</v>
+      </c>
+      <c r="AV6">
+        <v>0.952617427198137</v>
+      </c>
+      <c r="AW6">
+        <v>0.8759248309265816</v>
       </c>
       <c r="AX6">
-        <v>0.9517937962564256</v>
+        <v>0.8734263827057283</v>
+      </c>
+      <c r="AY6">
+        <v>0.8440037320857313</v>
       </c>
       <c r="AZ6">
-        <v>0.919195031229705</v>
+        <v>0.9374144390758802</v>
+      </c>
+      <c r="BA6">
+        <v>0.9182139877989336</v>
       </c>
       <c r="BB6">
-        <v>0.9453622977897064</v>
+        <v>0.9334968510555384</v>
+      </c>
+      <c r="BC6">
+        <v>0.9021629715638384</v>
+      </c>
+      <c r="BD6">
+        <v>0.9230836556390865</v>
       </c>
       <c r="BE6">
-        <v>0.9334208589533792</v>
+        <v>0.8781360353805806</v>
+      </c>
+      <c r="BF6">
+        <v>0.9524928871491326</v>
+      </c>
+      <c r="BG6">
+        <v>0.9436107585807856</v>
+      </c>
+      <c r="BH6">
+        <v>0.9189712079026472</v>
       </c>
       <c r="BI6">
-        <v>0.9499805945117976</v>
+        <v>0.9188236239633653</v>
       </c>
       <c r="BJ6">
-        <v>0.9439235589894031</v>
+        <v>0.9029975951387216</v>
       </c>
       <c r="BK6">
-        <v>0.9335095644867136</v>
+        <v>0.8438764693764456</v>
+      </c>
+      <c r="BL6">
+        <v>0.872362122734227</v>
+      </c>
+      <c r="BM6">
+        <v>0.9410152205960508</v>
+      </c>
+      <c r="BN6">
+        <v>0.8868150311127407</v>
+      </c>
+      <c r="BO6">
+        <v>0.9383448818682444</v>
       </c>
       <c r="BP6">
-        <v>0.9046778108291238</v>
+        <v>0.9235887131959692</v>
+      </c>
+      <c r="BQ6">
+        <v>0.945630424768712</v>
       </c>
       <c r="BR6">
-        <v>0.9459908912159504</v>
+        <v>0.939298932744327</v>
       </c>
       <c r="BS6">
-        <v>0.9348884271380564</v>
+        <v>0.9004058342837177</v>
+      </c>
+      <c r="BT6">
+        <v>0.9497025108017114</v>
       </c>
       <c r="BU6">
-        <v>0.9408976532487208</v>
+        <v>0.9532178143631702</v>
       </c>
       <c r="BV6">
-        <v>0.9288389901137352</v>
+        <v>0.8540026361168264</v>
+      </c>
+      <c r="BW6">
+        <v>0.952604410129452</v>
+      </c>
+      <c r="BX6">
+        <v>0.944061278838357</v>
+      </c>
+      <c r="BY6">
+        <v>0.8600034244705514</v>
       </c>
       <c r="BZ6">
-        <v>0.9344012857906208</v>
+        <v>0.908464143563896</v>
       </c>
       <c r="CA6">
-        <v>0.948600771369518</v>
+        <v>0.9058255386668058</v>
+      </c>
+      <c r="CB6">
+        <v>0.8390878564836345</v>
       </c>
       <c r="CC6">
-        <v>0.9470618418224674</v>
+        <v>0.9434957000414356</v>
+      </c>
+      <c r="CD6">
+        <v>0.9253333802626126</v>
+      </c>
+      <c r="CE6">
+        <v>0.877256478926623</v>
       </c>
       <c r="CF6">
-        <v>0.945224146802072</v>
+        <v>0.8715834522739225</v>
       </c>
       <c r="CG6">
-        <v>0.94797981131901</v>
+        <v>0.9178481290358136</v>
       </c>
       <c r="CH6">
-        <v>0.9160484856445524</v>
+        <v>0.9022314448808524</v>
+      </c>
+      <c r="CI6">
+        <v>0.8830494875688439</v>
       </c>
       <c r="CK6">
-        <v>0.9205210505826432</v>
+        <v>0.8892481358129033</v>
+      </c>
+      <c r="CL6">
+        <v>0.8677403969926831</v>
+      </c>
+      <c r="CM6">
+        <v>0.9144761270700348</v>
       </c>
       <c r="CN6">
-        <v>0.9287818313115878</v>
+        <v>0.9238711134217094</v>
+      </c>
+      <c r="CO6">
+        <v>0.8954862436634162</v>
       </c>
       <c r="CP6">
-        <v>0.9360838380899316</v>
+        <v>0.8874937255892839</v>
+      </c>
+      <c r="CQ6">
+        <v>0.912820263145569</v>
       </c>
       <c r="CR6">
-        <v>0.8801461784446222</v>
+        <v>0.9460598763494869</v>
       </c>
       <c r="CS6">
-        <v>0.9460598763494869</v>
+        <v>0.9193699912699306</v>
+      </c>
+      <c r="CT6">
+        <v>0.9104358814623584</v>
+      </c>
+      <c r="CU6">
+        <v>0.8534598759265015</v>
+      </c>
+      <c r="CV6">
+        <v>0.931170702932362</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0.9458038928805452</v>
       </c>
+      <c r="C7">
+        <v>0.9052596726762944</v>
+      </c>
+      <c r="D7">
+        <v>0.892962247999982</v>
+      </c>
       <c r="E7">
+        <v>0.8940606105611441</v>
+      </c>
+      <c r="F7">
         <v>0.9568530582683292</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.9485928637556412</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>0.9498995141693602</v>
+      </c>
+      <c r="J7">
         <v>0.96239897453664</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.9459744150289896</v>
       </c>
-      <c r="K7">
-        <v>0.9540579360024452</v>
+      <c r="L7">
+        <v>0.9044892595088784</v>
       </c>
       <c r="M7">
         <v>0.9399280653559068</v>
       </c>
       <c r="N7">
+        <v>0.9540579360024452</v>
+      </c>
+      <c r="O7">
+        <v>0.8879397459884044</v>
+      </c>
+      <c r="P7">
         <v>0.9559604126137792</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.9291997324314176</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.9622180170659158</v>
       </c>
       <c r="S7">
-        <v>0.956907582961145</v>
+        <v>0.907698741519136</v>
+      </c>
+      <c r="T7">
+        <v>0.928067621962496</v>
+      </c>
+      <c r="U7">
+        <v>0.8778168872293128</v>
+      </c>
+      <c r="V7">
+        <v>0.8908862216299738</v>
       </c>
       <c r="W7">
         <v>0.95977107532883</v>
       </c>
+      <c r="X7">
+        <v>0.8956742651477212</v>
+      </c>
       <c r="Y7">
         <v>0.9563719745178616</v>
       </c>
       <c r="Z7">
         <v>0.9578008692444072</v>
       </c>
+      <c r="AA7">
+        <v>0.9013832876335052</v>
+      </c>
       <c r="AB7">
-        <v>0.9451460587251692</v>
+        <v>0.9243341317393896</v>
+      </c>
+      <c r="AC7">
+        <v>0.8886717112948331</v>
+      </c>
+      <c r="AD7">
+        <v>0.9463222902936612</v>
+      </c>
+      <c r="AE7">
+        <v>0.9310600329336812</v>
+      </c>
+      <c r="AF7">
+        <v>0.9488267552206781</v>
+      </c>
+      <c r="AG7">
+        <v>0.9334246166204558</v>
+      </c>
+      <c r="AH7">
+        <v>0.8939530417318806</v>
+      </c>
+      <c r="AI7">
+        <v>0.9471579712907662</v>
+      </c>
+      <c r="AJ7">
+        <v>0.9480656317667346</v>
       </c>
       <c r="AK7">
+        <v>0.9094832025140293</v>
+      </c>
+      <c r="AL7">
+        <v>0.9202484721569658</v>
+      </c>
+      <c r="AM7">
+        <v>0.92658555419495</v>
+      </c>
+      <c r="AN7">
+        <v>0.9319893098099776</v>
+      </c>
+      <c r="AO7">
+        <v>0.9345805412330308</v>
+      </c>
+      <c r="AP7">
+        <v>0.941721465003428</v>
+      </c>
+      <c r="AQ7">
+        <v>0.9253123565903586</v>
+      </c>
+      <c r="AR7">
         <v>0.9384986234197248</v>
       </c>
-      <c r="AQ7">
-        <v>0.9483747825773576</v>
-      </c>
-      <c r="AR7">
-        <v>0.9420816885792276</v>
-      </c>
       <c r="AS7">
-        <v>0.9301070344757836</v>
+        <v>0.8725396335823973</v>
       </c>
       <c r="AT7">
-        <v>0.9463222902936612</v>
+        <v>0.941726746889978</v>
       </c>
       <c r="AU7">
-        <v>0.9488267552206781</v>
+        <v>0.9197842455897888</v>
+      </c>
+      <c r="AV7">
+        <v>0.9424868757732808</v>
+      </c>
+      <c r="AW7">
+        <v>0.8665180570947247</v>
       </c>
       <c r="AX7">
-        <v>0.9471579712907662</v>
+        <v>0.8625226823317889</v>
+      </c>
+      <c r="AY7">
+        <v>0.8657396225817879</v>
+      </c>
+      <c r="AZ7">
+        <v>0.9411572934159882</v>
+      </c>
+      <c r="BA7">
+        <v>0.931655611708522</v>
       </c>
       <c r="BB7">
-        <v>0.95263180484973</v>
+        <v>0.9364233145419216</v>
       </c>
       <c r="BC7">
-        <v>0.9536097550350549</v>
+        <v>0.9082345188272828</v>
+      </c>
+      <c r="BD7">
+        <v>0.9100988786909322</v>
+      </c>
+      <c r="BE7">
+        <v>0.8887607453494787</v>
+      </c>
+      <c r="BF7">
+        <v>0.9495613357613576</v>
+      </c>
+      <c r="BG7">
+        <v>0.948186184851914</v>
+      </c>
+      <c r="BH7">
+        <v>0.9010504159332052</v>
       </c>
       <c r="BI7">
-        <v>0.9563245193281444</v>
+        <v>0.9146520888076324</v>
       </c>
       <c r="BJ7">
-        <v>0.9378714719414772</v>
+        <v>0.9013476242193664</v>
       </c>
       <c r="BK7">
-        <v>0.9372408099877532</v>
+        <v>0.8493707854101762</v>
+      </c>
+      <c r="BL7">
+        <v>0.9033751900662826</v>
+      </c>
+      <c r="BM7">
+        <v>0.9330860695217318</v>
+      </c>
+      <c r="BN7">
+        <v>0.8728981476437629</v>
+      </c>
+      <c r="BO7">
+        <v>0.9454652892960068</v>
       </c>
       <c r="BP7">
-        <v>0.9054474335576668</v>
+        <v>0.8883696627535993</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9489329780646524</v>
       </c>
       <c r="BR7">
-        <v>0.9324964289816038</v>
-      </c>
-      <c r="BS7">
-        <v>0.9373849481387831</v>
+        <v>0.9395730265031508</v>
+      </c>
+      <c r="BT7">
+        <v>0.9504260534960668</v>
       </c>
       <c r="BU7">
-        <v>0.949248554885527</v>
+        <v>0.9541604791959716</v>
       </c>
       <c r="BV7">
-        <v>0.936279232878118</v>
+        <v>0.8705940211032527</v>
+      </c>
+      <c r="BW7">
+        <v>0.9569465747322397</v>
+      </c>
+      <c r="BX7">
+        <v>0.9270763086109696</v>
+      </c>
+      <c r="BY7">
+        <v>0.8547039987234681</v>
+      </c>
+      <c r="BZ7">
+        <v>0.9238862243942776</v>
+      </c>
+      <c r="CA7">
+        <v>0.9026325375156192</v>
+      </c>
+      <c r="CB7">
+        <v>0.8458485897038763</v>
+      </c>
+      <c r="CC7">
+        <v>0.9426371869257628</v>
+      </c>
+      <c r="CD7">
+        <v>0.9208403646601055</v>
+      </c>
+      <c r="CE7">
+        <v>0.8861639090650381</v>
       </c>
       <c r="CF7">
-        <v>0.943404758834132</v>
+        <v>0.8729199013315281</v>
       </c>
       <c r="CG7">
-        <v>0.9467140227418184</v>
+        <v>0.8947683828712203</v>
       </c>
       <c r="CH7">
-        <v>0.9018875413249354</v>
+        <v>0.9107501731937924</v>
+      </c>
+      <c r="CI7">
+        <v>0.8747375595915806</v>
+      </c>
+      <c r="CK7">
+        <v>0.9029142372956892</v>
+      </c>
+      <c r="CL7">
+        <v>0.8850330104604825</v>
+      </c>
+      <c r="CM7">
+        <v>0.910885823979024</v>
+      </c>
+      <c r="CN7">
+        <v>0.927388870580333</v>
+      </c>
+      <c r="CO7">
+        <v>0.9082209516010002</v>
+      </c>
+      <c r="CP7">
+        <v>0.8867485744916754</v>
+      </c>
+      <c r="CQ7">
+        <v>0.9130291240664296</v>
+      </c>
+      <c r="CR7">
+        <v>0.9440187548940876</v>
+      </c>
+      <c r="CS7">
+        <v>0.920509720445606</v>
+      </c>
+      <c r="CT7">
+        <v>0.9143517514452524</v>
+      </c>
+      <c r="CU7">
+        <v>0.8631531454521173</v>
+      </c>
+      <c r="CV7">
+        <v>0.921655092672959</v>
       </c>
     </row>
   </sheetData>
